--- a/examples/merged_metabolic_model/data.merged.xlsx
+++ b/examples/merged_metabolic_model/data.merged.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14970" windowHeight="10530"/>
+    <workbookView windowWidth="22770" windowHeight="10800"/>
   </bookViews>
   <sheets>
     <sheet name="!!Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!!Data'!$A$3:$BL$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!!Data'!$A$3:$BM$98</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -304,7 +304,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="541">
   <si>
     <t>!!!ObjTables comment='Data merged from Khodayari &amp; Maranas, Nature Communications, 2016, DOI: 10.1038/ncomms13806 and Gerosa et al., Cell Systems, 2015, 10.1016/j.cels.2015.09.008'</t>
   </si>
@@ -496,6 +496,9 @@
   </si>
   <si>
     <t>!Has ΔG</t>
+  </si>
+  <si>
+    <t>!Has ΔG &gt; -RT</t>
   </si>
   <si>
     <t>!Data for metabolic map</t>
@@ -6165,9 +6168,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -6207,6 +6210,111 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -6223,38 +6331,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6265,81 +6343,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6387,37 +6390,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6435,7 +6414,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6447,19 +6486,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6471,85 +6558,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6561,13 +6570,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6581,26 +6584,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6624,7 +6612,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6655,21 +6658,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -6678,147 +6666,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6841,7 +6844,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -7178,10 +7181,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BL98"/>
+  <dimension ref="A1:BM98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -7219,17 +7222,145 @@
     <col min="61" max="16384" width="8.8" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:1">
+    <row r="1" customHeight="1" spans="1:65">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="3"/>
+      <c r="AX1" s="3"/>
+      <c r="AY1" s="3"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="3"/>
+      <c r="BF1" s="3"/>
+      <c r="BG1" s="3"/>
+      <c r="BH1" s="3"/>
+      <c r="BI1" s="3"/>
+      <c r="BJ1" s="3"/>
+      <c r="BK1" s="3"/>
+      <c r="BL1" s="3"/>
+      <c r="BM1" s="3"/>
     </row>
-    <row r="2" customHeight="1" spans="1:1">
+    <row r="2" customHeight="1" spans="1:65">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="3"/>
+      <c r="BF2" s="3"/>
+      <c r="BG2" s="3"/>
+      <c r="BH2" s="3"/>
+      <c r="BI2" s="3"/>
+      <c r="BJ2" s="3"/>
+      <c r="BK2" s="3"/>
+      <c r="BL2" s="3"/>
+      <c r="BM2" s="3"/>
     </row>
-    <row r="3" ht="64" customHeight="1" spans="1:64">
+    <row r="3" ht="64" customHeight="1" spans="1:65">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -7420,37 +7551,40 @@
         <v>64</v>
       </c>
       <c r="BL3" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="BM3" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:64">
+    <row r="4" customHeight="1" spans="1:65">
       <c r="A4" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G4" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M4" s="5">
         <v>0.96</v>
@@ -7525,46 +7659,50 @@
         <v>0</v>
       </c>
       <c r="BJ4" s="1" t="b">
-        <f t="shared" ref="BJ4:BJ67" si="5">AND(NOT(ISBLANK(D4)),NOT(ISBLANK(AS4)))</f>
-        <v>0</v>
-      </c>
-      <c r="BK4" s="1" t="str">
-        <f t="shared" ref="BK4:BK67" si="6">IF(OR(BI4,BJ4),_xlfn.CONCAT("""",D4,""": ",IF(AND(BI4,BJ4),3,IF(BI4,2,IF(BJ4,1,""))),", "),"")</f>
+        <f>AND(NOT(ISBLANK(D4)),NOT(ISBLANK(AS4)))</f>
+        <v>0</v>
+      </c>
+      <c r="BK4" s="1" t="b">
+        <f t="shared" ref="BK4:BK67" si="5">AND(NOT(ISBLANK(D4)),AS4&gt;4*-8.314)</f>
+        <v>0</v>
+      </c>
+      <c r="BL4" s="1" t="str">
+        <f>IF(OR(BI4,BJ4),_xlfn.CONCAT("""",D4,""": ",IF(AND(BI4,BJ4),IF(BK4,3,4),IF(BI4,2,IF(BJ4,IF(BK4,1,0),""))),", "),"")</f>
         <v/>
       </c>
-      <c r="BL4" s="1" t="str">
-        <f>_xlfn.CONCAT("{",LEFT(_xlfn.CONCAT(BK4:BK98),LEN(_xlfn.CONCAT(BK4:BK98))-2),"}")</f>
-        <v>{"FBA": 3, "FBP": 3, "FUM": 3, "GLUN": 2, "ICDHyr": 3, "MDH": 3, "ME2": 3, "PFK": 3, "RPI": 3, "TALA": 3, "TPI": 3, "PGI": 1, "PDH": 1, "TKT2": 1, "RPE": 1, "PPC": 1, "PPCK": 1, "SUCDi": 1, "AKGDH": 1, "ME1": 1, "MALS": 1, "CS": 1, "PPS": 1, "GND": 1, "G6PDH2r": 1, "LDH_D": 1, "ICL": 1, "PYK": 1, "GAPD": 1, "PGL": 1, "ACKr": 1, "SUCOAS": 1, "ACONTa": 1, "ACONTb": 1, "ENO": 1, "PGM": 1, "TKT1": 1, "PGK": 1, "PTAr": 1}</v>
+      <c r="BM4" s="1" t="str">
+        <f>_xlfn.CONCAT("{",LEFT(_xlfn.CONCAT(BL4:BL98),LEN(_xlfn.CONCAT(BL4:BL98))-2),"}")</f>
+        <v>{"FBA": 3, "FBP": 4, "FUM": 3, "GLUN": 2, "ICDHyr": 4, "MDH": 3, "ME2": 4, "PFK": 3, "RPI": 3, "TALA": 3, "TPI": 3, "PGI": 1, "PDH": 0, "TKT2": 1, "RPE": 1, "PPC": 0, "PPCK": 1, "SUCDi": 0, "AKGDH": 0, "ME1": 0, "MALS": 0, "CS": 0, "PPS": 0, "GND": 0, "G6PDH2r": 1, "LDH_D": 1, "ICL": 1, "PYK": 1, "GAPD": 1, "PGL": 1, "ACKr": 1, "SUCOAS": 1, "ACONTa": 1, "ACONTb": 1, "ENO": 1, "PGM": 1, "TKT1": 1, "PGK": 1, "PTAr": 1}</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:63">
+    <row r="5" customHeight="1" spans="1:64">
       <c r="A5" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G5" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M5" s="5">
         <v>8.278</v>
@@ -7659,42 +7797,46 @@
         <v>0</v>
       </c>
       <c r="BJ5" s="1" t="b">
+        <f t="shared" ref="BJ4:BJ67" si="6">AND(NOT(ISBLANK(D5)),NOT(ISBLANK(AS5)))</f>
+        <v>0</v>
+      </c>
+      <c r="BK5" s="1" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BK5" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="BL5" s="1" t="str">
+        <f t="shared" ref="BL4:BL67" si="7">IF(OR(BI5,BJ5),_xlfn.CONCAT("""",D5,""": ",IF(AND(BI5,BJ5),IF(BK5,3,4),IF(BI5,2,IF(BJ5,IF(BK5,1,0),""))),", "),"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:63">
+    <row r="6" customHeight="1" spans="1:64">
       <c r="A6" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G6" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M6" s="5">
         <v>3.96</v>
@@ -7769,42 +7911,46 @@
         <v>0</v>
       </c>
       <c r="BJ6" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BK6" s="1" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BK6" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="BL6" s="1" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:63">
+    <row r="7" customHeight="1" spans="1:64">
       <c r="A7" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G7" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M7" s="5">
         <v>0.0027</v>
@@ -7879,42 +8025,46 @@
         <v>0</v>
       </c>
       <c r="BJ7" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BK7" s="1" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BK7" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="BL7" s="1" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:63">
+    <row r="8" customHeight="1" spans="1:64">
       <c r="A8" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G8" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M8" s="5">
         <v>0</v>
@@ -7989,42 +8139,46 @@
         <v>0</v>
       </c>
       <c r="BJ8" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BK8" s="1" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BK8" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="BL8" s="1" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:63">
+    <row r="9" customHeight="1" spans="1:64">
       <c r="A9" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G9" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M9" s="5">
         <v>162</v>
@@ -8099,42 +8253,46 @@
         <v>0</v>
       </c>
       <c r="BJ9" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BK9" s="1" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BK9" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="BL9" s="1" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:63">
+    <row r="10" customHeight="1" spans="1:64">
       <c r="A10" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G10" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M10" s="5">
         <v>0</v>
@@ -8209,42 +8367,46 @@
         <v>0</v>
       </c>
       <c r="BJ10" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BK10" s="1" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BK10" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="BL10" s="1" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:63">
+    <row r="11" customHeight="1" spans="1:64">
       <c r="A11" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G11" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M11" s="5">
         <v>0</v>
@@ -8319,42 +8481,46 @@
         <v>0</v>
       </c>
       <c r="BJ11" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BK11" s="1" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BK11" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="BL11" s="1" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:63">
+    <row r="12" customHeight="1" spans="1:64">
       <c r="A12" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G12" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M12" s="5">
         <v>0</v>
@@ -8429,42 +8595,46 @@
         <v>0</v>
       </c>
       <c r="BJ12" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BK12" s="1" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BK12" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="BL12" s="1" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:63">
+    <row r="13" customHeight="1" spans="1:64">
       <c r="A13" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G13" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M13" s="5">
         <v>10.71</v>
@@ -8539,39 +8709,43 @@
         <v>0</v>
       </c>
       <c r="BJ13" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BK13" s="1" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BK13" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="BL13" s="1" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:63">
+    <row r="14" customHeight="1" spans="1:64">
       <c r="A14" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G14" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J14" s="5">
         <v>0</v>
@@ -8580,7 +8754,7 @@
         <v>1000</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M14" s="5">
         <v>0</v>
@@ -8707,41 +8881,45 @@
         <v>0</v>
       </c>
       <c r="BJ14" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BK14" s="1" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BK14" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="BL14" s="1" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:63">
+    <row r="15" customHeight="1" spans="1:64">
       <c r="A15" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G15" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J15" s="5">
         <v>-1000</v>
@@ -8750,7 +8928,7 @@
         <v>1000</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M15" s="5">
         <v>7.9667</v>
@@ -8889,41 +9067,45 @@
         <v>1</v>
       </c>
       <c r="BJ15" s="1" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="BK15" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="BK15" s="1" t="b">
+        <f>AND(NOT(ISBLANK(D15)),AS15&gt;4*-8.314)</f>
+        <v>1</v>
+      </c>
+      <c r="BL15" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>"FBA": 3, </v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:63">
+    <row r="16" customHeight="1" spans="1:64">
       <c r="A16" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G16" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J16" s="5">
         <v>0</v>
@@ -8932,7 +9114,7 @@
         <v>1000</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M16" s="5">
         <v>3.6</v>
@@ -9039,42 +9221,46 @@
         <v>1</v>
       </c>
       <c r="BJ16" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BK16" s="1" t="b">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="BK16" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>"FBP": 3, </v>
+        <v>0</v>
+      </c>
+      <c r="BL16" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>"FBP": 4, </v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:63">
+    <row r="17" customHeight="1" spans="1:64">
       <c r="A17" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G17" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
@@ -9149,41 +9335,45 @@
         <v>0</v>
       </c>
       <c r="BJ17" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BK17" s="1" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BK17" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="BL17" s="1" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:63">
+    <row r="18" customHeight="1" spans="1:64">
       <c r="A18" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G18" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J18" s="5">
         <v>0</v>
@@ -9192,7 +9382,7 @@
         <v>1000</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
@@ -9331,42 +9521,46 @@
         <v>1</v>
       </c>
       <c r="BJ18" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BK18" s="1" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="BK18" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="BL18" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>"FUM": 3, </v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:63">
+    <row r="19" customHeight="1" spans="1:64">
       <c r="A19" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G19" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M19" s="5">
         <v>0.08</v>
@@ -9441,42 +9635,46 @@
         <v>0</v>
       </c>
       <c r="BJ19" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BK19" s="1" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BK19" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="BL19" s="1" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:63">
+    <row r="20" customHeight="1" spans="1:64">
       <c r="A20" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G20" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M20" s="5">
         <v>238.1667</v>
@@ -9571,42 +9769,46 @@
         <v>0</v>
       </c>
       <c r="BJ20" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BK20" s="1" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BK20" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="BL20" s="1" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:63">
+    <row r="21" customHeight="1" spans="1:64">
       <c r="A21" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G21" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M21" s="5">
         <v>27.8933</v>
@@ -9681,44 +9883,48 @@
         <v>0</v>
       </c>
       <c r="BJ21" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BK21" s="1" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BK21" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="BL21" s="1" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:63">
+    <row r="22" customHeight="1" spans="1:64">
       <c r="A22" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G22" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M22" s="5">
         <v>0</v>
@@ -9813,42 +10019,46 @@
         <v>1</v>
       </c>
       <c r="BJ22" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BK22" s="1" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BK22" s="1" t="str">
-        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BL22" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>"GLUN": 2, </v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:63">
+    <row r="23" customHeight="1" spans="1:64">
       <c r="A23" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G23" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M23" s="5">
         <v>72.5</v>
@@ -9923,42 +10133,46 @@
         <v>0</v>
       </c>
       <c r="BJ23" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BK23" s="1" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BK23" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="BL23" s="1" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:63">
+    <row r="24" customHeight="1" spans="1:64">
       <c r="A24" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G24" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M24" s="5">
         <v>0</v>
@@ -10033,42 +10247,46 @@
         <v>0</v>
       </c>
       <c r="BJ24" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BK24" s="1" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BK24" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="BL24" s="1" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:63">
+    <row r="25" customHeight="1" spans="1:64">
       <c r="A25" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G25" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M25" s="5">
         <v>2.475</v>
@@ -10143,42 +10361,46 @@
         <v>0</v>
       </c>
       <c r="BJ25" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BK25" s="1" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BK25" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="BL25" s="1" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:63">
+    <row r="26" customHeight="1" spans="1:64">
       <c r="A26" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G26" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M26" s="5">
         <v>0</v>
@@ -10253,41 +10475,45 @@
         <v>0</v>
       </c>
       <c r="BJ26" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BK26" s="1" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BK26" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="BL26" s="1" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:63">
+    <row r="27" customHeight="1" spans="1:64">
       <c r="A27" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G27" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J27" s="5">
         <v>-1000</v>
@@ -10296,7 +10522,7 @@
         <v>1000</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M27" s="5">
         <v>79.29</v>
@@ -10403,42 +10629,46 @@
         <v>1</v>
       </c>
       <c r="BJ27" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BK27" s="1" t="b">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="BK27" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>"ICDHyr": 3, </v>
+        <v>0</v>
+      </c>
+      <c r="BL27" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>"ICDHyr": 4, </v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:63">
+    <row r="28" customHeight="1" spans="1:64">
       <c r="A28" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G28" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M28" s="5">
         <v>0</v>
@@ -10513,42 +10743,46 @@
         <v>0</v>
       </c>
       <c r="BJ28" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BK28" s="1" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BK28" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="BL28" s="1" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:63">
+    <row r="29" customHeight="1" spans="1:64">
       <c r="A29" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G29" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M29" s="5">
         <v>62.1</v>
@@ -10623,42 +10857,46 @@
         <v>0</v>
       </c>
       <c r="BJ29" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BK29" s="1" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BK29" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="BL29" s="1" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="1:63">
+    <row r="30" customHeight="1" spans="1:64">
       <c r="A30" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G30" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
@@ -10733,42 +10971,46 @@
         <v>0</v>
       </c>
       <c r="BJ30" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BK30" s="1" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BK30" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="BL30" s="1" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:63">
+    <row r="31" customHeight="1" spans="1:64">
       <c r="A31" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G31" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M31" s="5">
         <v>0</v>
@@ -10843,42 +11085,46 @@
         <v>0</v>
       </c>
       <c r="BJ31" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BK31" s="1" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BK31" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="BL31" s="1" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="1:63">
+    <row r="32" customHeight="1" spans="1:64">
       <c r="A32" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G32" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M32" s="5">
         <v>27</v>
@@ -10953,41 +11199,45 @@
         <v>0</v>
       </c>
       <c r="BJ32" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BK32" s="1" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BK32" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="BL32" s="1" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="1:63">
+    <row r="33" customHeight="1" spans="1:64">
       <c r="A33" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G33" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J33" s="5">
         <v>-1000</v>
@@ -11101,41 +11351,45 @@
         <v>1</v>
       </c>
       <c r="BJ33" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BK33" s="1" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="BK33" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="BL33" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>"MDH": 3, </v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="1:63">
+    <row r="34" customHeight="1" spans="1:64">
       <c r="A34" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G34" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J34" s="5">
         <v>0</v>
@@ -11144,7 +11398,7 @@
         <v>1000</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M34" s="5">
         <v>59.94</v>
@@ -11251,42 +11505,46 @@
         <v>1</v>
       </c>
       <c r="BJ34" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BK34" s="1" t="b">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="BK34" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>"ME2": 3, </v>
+        <v>0</v>
+      </c>
+      <c r="BL34" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>"ME2": 4, </v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="1:63">
+    <row r="35" customHeight="1" spans="1:64">
       <c r="A35" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G35" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M35" s="5">
         <v>7.497</v>
@@ -11361,41 +11619,45 @@
         <v>0</v>
       </c>
       <c r="BJ35" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BK35" s="1" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BK35" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="BL35" s="1" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:63">
+    <row r="36" customHeight="1" spans="1:64">
       <c r="A36" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G36" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J36" s="5">
         <v>0</v>
@@ -11404,7 +11666,7 @@
         <v>1000</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M36" s="5">
         <v>0</v>
@@ -11511,42 +11773,46 @@
         <v>1</v>
       </c>
       <c r="BJ36" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BK36" s="1" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="BK36" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="BL36" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>"PFK": 3, </v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:63">
+    <row r="37" customHeight="1" spans="1:64">
       <c r="A37" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G37" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M37" s="5">
         <v>0.45</v>
@@ -11621,42 +11887,46 @@
         <v>0</v>
       </c>
       <c r="BJ37" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BK37" s="1" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BK37" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="BL37" s="1" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="1:63">
+    <row r="38" customHeight="1" spans="1:64">
       <c r="A38" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G38" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M38" s="5">
         <v>1890.25</v>
@@ -11731,42 +12001,46 @@
         <v>0</v>
       </c>
       <c r="BJ38" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BK38" s="1" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BK38" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="BL38" s="1" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="1:63">
+    <row r="39" customHeight="1" spans="1:64">
       <c r="A39" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G39" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M39" s="5">
         <v>1.33</v>
@@ -11861,41 +12135,45 @@
         <v>0</v>
       </c>
       <c r="BJ39" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BK39" s="1" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BK39" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="BL39" s="1" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="1:63">
+    <row r="40" customHeight="1" spans="1:64">
       <c r="A40" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G40" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J40" s="5">
         <v>-1000</v>
@@ -11904,7 +12182,7 @@
         <v>1000</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M40" s="5">
         <v>1890</v>
@@ -12043,42 +12321,46 @@
         <v>1</v>
       </c>
       <c r="BJ40" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BK40" s="1" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="BK40" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="BL40" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>"RPI": 3, </v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="1:63">
+    <row r="41" customHeight="1" spans="1:64">
       <c r="A41" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G41" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M41" s="5">
         <v>0.0612</v>
@@ -12153,42 +12435,46 @@
         <v>0</v>
       </c>
       <c r="BJ41" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BK41" s="1" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BK41" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="BL41" s="1" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:63">
+    <row r="42" customHeight="1" spans="1:64">
       <c r="A42" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G42" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M42" s="5">
         <v>436</v>
@@ -12263,42 +12549,46 @@
         <v>0</v>
       </c>
       <c r="BJ42" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BK42" s="1" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BK42" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="BL42" s="1" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="1:63">
+    <row r="43" customHeight="1" spans="1:64">
       <c r="A43" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G43" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M43" s="5">
         <v>20.34</v>
@@ -12373,41 +12663,45 @@
         <v>0</v>
       </c>
       <c r="BJ43" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BK43" s="1" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BK43" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="BL43" s="1" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:63">
+    <row r="44" customHeight="1" spans="1:64">
       <c r="A44" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G44" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J44" s="5">
         <v>-1000</v>
@@ -12416,7 +12710,7 @@
         <v>1000</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M44" s="5">
         <v>11.7</v>
@@ -12523,41 +12817,45 @@
         <v>1</v>
       </c>
       <c r="BJ44" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BK44" s="1" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="BK44" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="BL44" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>"TALA": 3, </v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="1:63">
+    <row r="45" customHeight="1" spans="1:64">
       <c r="A45" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G45" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J45" s="5">
         <v>-1000</v>
@@ -12566,7 +12864,7 @@
         <v>1000</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
@@ -12705,42 +13003,46 @@
         <v>1</v>
       </c>
       <c r="BJ45" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BK45" s="1" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="BK45" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="BL45" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>"TPI": 3, </v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="1:63">
+    <row r="46" customHeight="1" spans="1:64">
       <c r="A46" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G46" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M46" s="5">
         <v>35.1</v>
@@ -12815,42 +13117,46 @@
         <v>0</v>
       </c>
       <c r="BJ46" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BK46" s="1" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BK46" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="BL46" s="1" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="1:63">
+    <row r="47" customHeight="1" spans="1:64">
       <c r="A47" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G47" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M47" s="5">
         <v>17.1</v>
@@ -12925,39 +13231,43 @@
         <v>0</v>
       </c>
       <c r="BJ47" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BK47" s="1" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BK47" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="BL47" s="1" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="1:63">
+    <row r="48" customHeight="1" spans="1:64">
       <c r="A48" s="5"/>
       <c r="B48" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G48" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="J48" s="5">
         <v>-1000</v>
@@ -13083,36 +13393,40 @@
         <v>0</v>
       </c>
       <c r="BJ48" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BK48" s="1" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="BK48" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="BL48" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>"PGI": 1, </v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="1:63">
+    <row r="49" customHeight="1" spans="1:64">
       <c r="A49" s="5"/>
       <c r="B49" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G49" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I49" s="5"/>
       <c r="J49" s="5">
@@ -13175,34 +13489,38 @@
         <v>0</v>
       </c>
       <c r="BJ49" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BK49" s="1" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BK49" s="1" t="str">
-        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BL49" s="1" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="1:63">
+    <row r="50" customHeight="1" spans="1:64">
       <c r="A50" s="5"/>
       <c r="B50" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G50" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="5">
@@ -13265,36 +13583,40 @@
         <v>0</v>
       </c>
       <c r="BJ50" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BK50" s="1" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BK50" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="BL50" s="1" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="1:63">
+    <row r="51" customHeight="1" spans="1:64">
       <c r="A51" s="5"/>
       <c r="B51" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G51" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I51" s="5"/>
       <c r="J51" s="5">
@@ -13357,36 +13679,40 @@
         <v>0</v>
       </c>
       <c r="BJ51" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BK51" s="1" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BK51" s="1" t="str">
-        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BL51" s="1" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="1:63">
+    <row r="52" customHeight="1" spans="1:64">
       <c r="A52" s="5"/>
       <c r="B52" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G52" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="5">
@@ -13449,34 +13775,38 @@
         <v>0</v>
       </c>
       <c r="BJ52" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BK52" s="1" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BK52" s="1" t="str">
-        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BL52" s="1" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="1:63">
+    <row r="53" customHeight="1" spans="1:64">
       <c r="A53" s="5"/>
       <c r="B53" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G53" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I53" s="5"/>
       <c r="J53" s="5">
@@ -13539,36 +13869,40 @@
         <v>0</v>
       </c>
       <c r="BJ53" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BK53" s="1" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BK53" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="BL53" s="1" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="54" customHeight="1" spans="1:63">
+    <row r="54" customHeight="1" spans="1:64">
       <c r="A54" s="5"/>
       <c r="B54" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G54" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I54" s="5"/>
       <c r="J54" s="5">
@@ -13631,36 +13965,40 @@
         <v>0</v>
       </c>
       <c r="BJ54" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BK54" s="1" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BK54" s="1" t="str">
-        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BL54" s="1" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="55" customHeight="1" spans="1:63">
+    <row r="55" customHeight="1" spans="1:64">
       <c r="A55" s="5"/>
       <c r="B55" s="5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G55" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I55" s="5"/>
       <c r="J55" s="5">
@@ -13723,36 +14061,40 @@
         <v>0</v>
       </c>
       <c r="BJ55" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BK55" s="1" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BK55" s="1" t="str">
-        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BL55" s="1" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="56" customHeight="1" spans="1:63">
+    <row r="56" customHeight="1" spans="1:64">
       <c r="A56" s="5"/>
       <c r="B56" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G56" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I56" s="5"/>
       <c r="J56" s="5">
@@ -13815,36 +14157,40 @@
         <v>0</v>
       </c>
       <c r="BJ56" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BK56" s="1" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BK56" s="1" t="str">
-        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BL56" s="1" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="57" customHeight="1" spans="1:63">
+    <row r="57" customHeight="1" spans="1:64">
       <c r="A57" s="5"/>
       <c r="B57" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G57" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I57" s="5"/>
       <c r="J57" s="5">
@@ -13907,36 +14253,40 @@
         <v>0</v>
       </c>
       <c r="BJ57" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BK57" s="1" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BK57" s="1" t="str">
-        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BL57" s="1" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="58" customHeight="1" spans="1:63">
+    <row r="58" customHeight="1" spans="1:64">
       <c r="A58" s="5"/>
       <c r="B58" s="5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G58" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I58" s="5"/>
       <c r="J58" s="5">
@@ -14063,39 +14413,43 @@
         <v>0</v>
       </c>
       <c r="BJ58" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BK58" s="1" t="b">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="BK58" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>"PDH": 1, </v>
+        <v>0</v>
+      </c>
+      <c r="BL58" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>"PDH": 0, </v>
       </c>
     </row>
-    <row r="59" customHeight="1" spans="1:63">
+    <row r="59" customHeight="1" spans="1:64">
       <c r="A59" s="5"/>
       <c r="B59" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G59" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="J59" s="5">
         <v>-1000</v>
@@ -14221,39 +14575,43 @@
         <v>0</v>
       </c>
       <c r="BJ59" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BK59" s="1" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="BK59" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="BL59" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>"TKT2": 1, </v>
       </c>
     </row>
-    <row r="60" customHeight="1" spans="1:63">
+    <row r="60" customHeight="1" spans="1:64">
       <c r="A60" s="5"/>
       <c r="B60" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G60" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="J60" s="5">
         <v>-1000</v>
@@ -14379,39 +14737,43 @@
         <v>0</v>
       </c>
       <c r="BJ60" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BK60" s="1" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="BK60" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="BL60" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>"RPE": 1, </v>
       </c>
     </row>
-    <row r="61" customHeight="1" spans="1:63">
+    <row r="61" customHeight="1" spans="1:64">
       <c r="A61" s="5"/>
       <c r="B61" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G61" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J61" s="5">
         <v>0</v>
@@ -14537,39 +14899,43 @@
         <v>0</v>
       </c>
       <c r="BJ61" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BK61" s="1" t="b">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="BK61" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>"PPC": 1, </v>
+        <v>0</v>
+      </c>
+      <c r="BL61" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>"PPC": 0, </v>
       </c>
     </row>
-    <row r="62" customHeight="1" spans="1:63">
+    <row r="62" customHeight="1" spans="1:64">
       <c r="A62" s="5"/>
       <c r="B62" s="5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G62" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="J62" s="5">
         <v>0</v>
@@ -14695,39 +15061,43 @@
         <v>0</v>
       </c>
       <c r="BJ62" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BK62" s="1" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="BK62" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="BL62" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>"PPCK": 1, </v>
       </c>
     </row>
-    <row r="63" customHeight="1" spans="1:63">
+    <row r="63" customHeight="1" spans="1:64">
       <c r="A63" s="5"/>
       <c r="B63" s="5" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G63" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J63" s="5">
         <v>0</v>
@@ -14853,36 +15223,40 @@
         <v>0</v>
       </c>
       <c r="BJ63" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BK63" s="1" t="b">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="BK63" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>"SUCDi": 1, </v>
+        <v>0</v>
+      </c>
+      <c r="BL63" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>"SUCDi": 0, </v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="1:63">
+    <row r="64" customHeight="1" spans="1:64">
       <c r="A64" s="5"/>
       <c r="B64" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G64" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I64" s="5"/>
       <c r="J64" s="5">
@@ -14945,37 +15319,41 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BK64" s="1" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BK64" s="1" t="str">
-        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BL64" s="1" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="65" customHeight="1" spans="1:63">
+    <row r="65" customHeight="1" spans="1:64">
       <c r="A65" s="5"/>
       <c r="B65" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G65" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="J65" s="5">
         <v>0</v>
@@ -15069,37 +15447,41 @@
         <v>0</v>
       </c>
       <c r="BJ65" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BK65" s="1" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BK65" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="BL65" s="1" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="66" customHeight="1" spans="1:63">
+    <row r="66" customHeight="1" spans="1:64">
       <c r="A66" s="5"/>
       <c r="B66" s="5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G66" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J66" s="5">
         <v>-1000</v>
@@ -15193,37 +15575,41 @@
         <v>0</v>
       </c>
       <c r="BJ66" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BK66" s="1" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BK66" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="BL66" s="1" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="67" customHeight="1" spans="1:63">
+    <row r="67" customHeight="1" spans="1:64">
       <c r="A67" s="5"/>
       <c r="B67" s="5" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G67" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="J67" s="5">
         <v>0</v>
@@ -15317,37 +15703,41 @@
         <v>0</v>
       </c>
       <c r="BJ67" s="1" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BK67" s="1" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BK67" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="BL67" s="1" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="68" customHeight="1" spans="1:63">
+    <row r="68" customHeight="1" spans="1:64">
       <c r="A68" s="5"/>
       <c r="B68" s="5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G68" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J68" s="5">
         <v>0</v>
@@ -15437,40 +15827,44 @@
         <v>0.680652685933491</v>
       </c>
       <c r="BI68" s="1" t="b">
-        <f t="shared" ref="BI68:BI98" si="7">AND(NOT(ISBLANK(D68)),OR(NOT(ISBLANK(M68)),NOT(ISBLANK(Q68))))</f>
+        <f t="shared" ref="BI68:BI98" si="8">AND(NOT(ISBLANK(D68)),OR(NOT(ISBLANK(M68)),NOT(ISBLANK(Q68))))</f>
         <v>0</v>
       </c>
       <c r="BJ68" s="1" t="b">
-        <f t="shared" ref="BJ68:BJ98" si="8">AND(NOT(ISBLANK(D68)),NOT(ISBLANK(AS68)))</f>
-        <v>0</v>
-      </c>
-      <c r="BK68" s="1" t="str">
-        <f t="shared" ref="BK68:BK98" si="9">IF(OR(BI68,BJ68),_xlfn.CONCAT("""",D68,""": ",IF(AND(BI68,BJ68),3,IF(BI68,2,IF(BJ68,1,""))),", "),"")</f>
+        <f t="shared" ref="BJ68:BJ98" si="9">AND(NOT(ISBLANK(D68)),NOT(ISBLANK(AS68)))</f>
+        <v>0</v>
+      </c>
+      <c r="BK68" s="1" t="b">
+        <f t="shared" ref="BK68:BK98" si="10">AND(NOT(ISBLANK(D68)),AS68&gt;4*-8.314)</f>
+        <v>0</v>
+      </c>
+      <c r="BL68" s="1" t="str">
+        <f t="shared" ref="BL68:BL98" si="11">IF(OR(BI68,BJ68),_xlfn.CONCAT("""",D68,""": ",IF(AND(BI68,BJ68),IF(BK68,3,4),IF(BI68,2,IF(BJ68,IF(BK68,1,0),""))),", "),"")</f>
         <v/>
       </c>
     </row>
-    <row r="69" customHeight="1" spans="1:63">
+    <row r="69" customHeight="1" spans="1:64">
       <c r="A69" s="5"/>
       <c r="B69" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G69" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I69" s="5"/>
       <c r="J69" s="5">
@@ -15561,43 +15955,47 @@
         <v>0.608005746382626</v>
       </c>
       <c r="BI69" s="1" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BJ69" s="1" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="BK69" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>"AKGDH": 1, </v>
+      <c r="BK69" s="1" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BL69" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>"AKGDH": 0, </v>
       </c>
     </row>
-    <row r="70" customHeight="1" spans="1:63">
+    <row r="70" customHeight="1" spans="1:64">
       <c r="A70" s="5"/>
       <c r="B70" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G70" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="J70" s="5">
         <v>0</v>
@@ -15687,43 +16085,47 @@
         <v>1.80574296192142</v>
       </c>
       <c r="BI70" s="1" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BJ70" s="1" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="BK70" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>"ME1": 1, </v>
+      <c r="BK70" s="1" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BL70" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>"ME1": 0, </v>
       </c>
     </row>
-    <row r="71" customHeight="1" spans="1:63">
+    <row r="71" customHeight="1" spans="1:64">
       <c r="A71" s="5"/>
       <c r="B71" s="5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G71" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="J71" s="5">
         <v>0</v>
@@ -15813,40 +16215,44 @@
         <v>0.122641598388863</v>
       </c>
       <c r="BI71" s="1" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BJ71" s="1" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="BK71" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>"MALS": 1, </v>
+      <c r="BK71" s="1" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BL71" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>"MALS": 0, </v>
       </c>
     </row>
-    <row r="72" customHeight="1" spans="1:63">
+    <row r="72" customHeight="1" spans="1:64">
       <c r="A72" s="5"/>
       <c r="B72" s="5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G72" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I72" s="5"/>
       <c r="J72" s="5">
@@ -15937,43 +16343,47 @@
         <v>1.56457605084113</v>
       </c>
       <c r="BI72" s="1" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BJ72" s="1" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="BK72" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>"CS": 1, </v>
+      <c r="BK72" s="1" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BL72" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>"CS": 0, </v>
       </c>
     </row>
-    <row r="73" customHeight="1" spans="1:63">
+    <row r="73" customHeight="1" spans="1:64">
       <c r="A73" s="5"/>
       <c r="B73" s="5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G73" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="J73" s="5">
         <v>0</v>
@@ -16063,38 +16473,42 @@
         <v>1.72231565199264</v>
       </c>
       <c r="BI73" s="1" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BJ73" s="1" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="BK73" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>"PPS": 1, </v>
+      <c r="BK73" s="1" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BL73" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>"PPS": 0, </v>
       </c>
     </row>
-    <row r="74" customHeight="1" spans="1:63">
+    <row r="74" customHeight="1" spans="1:64">
       <c r="A74" s="5"/>
       <c r="B74" s="5" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G74" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I74" s="5"/>
       <c r="J74" s="5">
@@ -16185,43 +16599,47 @@
         <v>1.79338819384831</v>
       </c>
       <c r="BI74" s="1" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BJ74" s="1" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BK74" s="1" t="str">
         <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BK74" s="1" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BL74" s="1" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="75" customHeight="1" spans="1:63">
+    <row r="75" customHeight="1" spans="1:64">
       <c r="A75" s="5"/>
       <c r="B75" s="5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G75" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="J75" s="5">
         <v>0</v>
@@ -16311,43 +16729,47 @@
         <v>0.711210378634903</v>
       </c>
       <c r="BI75" s="1" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BJ75" s="1" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="BK75" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>"GND": 1, </v>
+      <c r="BK75" s="1" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BL75" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>"GND": 0, </v>
       </c>
     </row>
-    <row r="76" customHeight="1" spans="1:63">
+    <row r="76" customHeight="1" spans="1:64">
       <c r="A76" s="5"/>
       <c r="B76" s="5" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G76" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J76" s="5">
         <v>-1000</v>
@@ -16437,38 +16859,42 @@
         <v>0.275482538582139</v>
       </c>
       <c r="BI76" s="1" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BJ76" s="1" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="BK76" s="1" t="str">
-        <f t="shared" si="9"/>
+      <c r="BK76" s="1" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="BL76" s="1" t="str">
+        <f t="shared" si="11"/>
         <v>"G6PDH2r": 1, </v>
       </c>
     </row>
-    <row r="77" customHeight="1" spans="1:63">
+    <row r="77" customHeight="1" spans="1:64">
       <c r="A77" s="5"/>
       <c r="B77" s="5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="5" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G77" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I77" s="5"/>
       <c r="J77" s="5">
@@ -16559,43 +16985,47 @@
         <v>1.71929092226898</v>
       </c>
       <c r="BI77" s="1" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BJ77" s="1" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BK77" s="1" t="str">
         <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BK77" s="1" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BL77" s="1" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="78" customHeight="1" spans="1:63">
+    <row r="78" customHeight="1" spans="1:64">
       <c r="A78" s="5"/>
       <c r="B78" s="5" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G78" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="J78" s="5">
         <v>-1000</v>
@@ -16685,43 +17115,47 @@
         <v>1.80157339092066</v>
       </c>
       <c r="BI78" s="1" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BJ78" s="1" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="BK78" s="1" t="str">
-        <f t="shared" si="9"/>
+      <c r="BK78" s="1" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="BL78" s="1" t="str">
+        <f t="shared" si="11"/>
         <v>"LDH_D": 1, </v>
       </c>
     </row>
-    <row r="79" customHeight="1" spans="1:63">
+    <row r="79" customHeight="1" spans="1:64">
       <c r="A79" s="5"/>
       <c r="B79" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G79" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="J79" s="5">
         <v>0</v>
@@ -16811,43 +17245,47 @@
         <v>0.207054921541641</v>
       </c>
       <c r="BI79" s="1" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BJ79" s="1" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="BK79" s="1" t="str">
-        <f t="shared" si="9"/>
+      <c r="BK79" s="1" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="BL79" s="1" t="str">
+        <f t="shared" si="11"/>
         <v>"ICL": 1, </v>
       </c>
     </row>
-    <row r="80" customHeight="1" spans="1:63">
+    <row r="80" customHeight="1" spans="1:64">
       <c r="A80" s="5"/>
       <c r="B80" s="5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G80" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="J80" s="5">
         <v>0</v>
@@ -16937,43 +17375,47 @@
         <v>1.72095976820255</v>
       </c>
       <c r="BI80" s="1" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BJ80" s="1" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="BK80" s="1" t="str">
-        <f t="shared" si="9"/>
+      <c r="BK80" s="1" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="BL80" s="1" t="str">
+        <f t="shared" si="11"/>
         <v>"PYK": 1, </v>
       </c>
     </row>
-    <row r="81" customHeight="1" spans="1:63">
+    <row r="81" customHeight="1" spans="1:64">
       <c r="A81" s="5"/>
       <c r="B81" s="5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G81" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="J81" s="5">
         <v>-1000</v>
@@ -17063,41 +17505,45 @@
         <v>0.657200919934466</v>
       </c>
       <c r="BI81" s="1" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BJ81" s="1" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="BK81" s="1" t="str">
-        <f t="shared" si="9"/>
+      <c r="BK81" s="1" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="BL81" s="1" t="str">
+        <f t="shared" si="11"/>
         <v>"GAPD": 1, </v>
       </c>
     </row>
-    <row r="82" customHeight="1" spans="1:63">
+    <row r="82" customHeight="1" spans="1:64">
       <c r="A82" s="5"/>
       <c r="B82" s="5" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G82" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="J82" s="5">
         <v>0</v>
@@ -17187,41 +17633,45 @@
         <v>0.565294689095309</v>
       </c>
       <c r="BI82" s="1" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BJ82" s="1" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BK82" s="1" t="str">
         <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BK82" s="1" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BL82" s="1" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="83" customHeight="1" spans="1:63">
+    <row r="83" customHeight="1" spans="1:64">
       <c r="A83" s="5"/>
       <c r="B83" s="5" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G83" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="J83" s="5">
         <v>0</v>
@@ -17311,43 +17761,47 @@
         <v>0.55697681107072</v>
       </c>
       <c r="BI83" s="1" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BJ83" s="1" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BK83" s="1" t="str">
         <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BK83" s="1" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BL83" s="1" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="84" customHeight="1" spans="1:63">
+    <row r="84" customHeight="1" spans="1:64">
       <c r="A84" s="5"/>
       <c r="B84" s="5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G84" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J84" s="5">
         <v>0</v>
@@ -17437,43 +17891,47 @@
         <v>0.60761412725263</v>
       </c>
       <c r="BI84" s="1" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BJ84" s="1" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="BK84" s="1" t="str">
-        <f t="shared" si="9"/>
+      <c r="BK84" s="1" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="BL84" s="1" t="str">
+        <f t="shared" si="11"/>
         <v>"PGL": 1, </v>
       </c>
     </row>
-    <row r="85" customHeight="1" spans="1:63">
+    <row r="85" customHeight="1" spans="1:64">
       <c r="A85" s="5"/>
       <c r="B85" s="5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G85" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="J85" s="5">
         <v>0</v>
@@ -17563,41 +18021,45 @@
         <v>0.0912470517824459</v>
       </c>
       <c r="BI85" s="1" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BJ85" s="1" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="BK85" s="1" t="str">
-        <f t="shared" si="9"/>
+      <c r="BK85" s="1" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="BL85" s="1" t="str">
+        <f t="shared" si="11"/>
         <v>"ACKr": 1, </v>
       </c>
     </row>
-    <row r="86" customHeight="1" spans="1:63">
+    <row r="86" customHeight="1" spans="1:64">
       <c r="A86" s="5"/>
       <c r="B86" s="5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G86" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J86" s="5">
         <v>0</v>
@@ -17687,41 +18149,45 @@
         <v>0.395667151635662</v>
       </c>
       <c r="BI86" s="1" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BJ86" s="1" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BK86" s="1" t="str">
         <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BK86" s="1" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BL86" s="1" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="87" customHeight="1" spans="1:63">
+    <row r="87" customHeight="1" spans="1:64">
       <c r="A87" s="5"/>
       <c r="B87" s="5" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G87" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="J87" s="5">
         <v>0</v>
@@ -17811,41 +18277,45 @@
         <v>0.614427336709527</v>
       </c>
       <c r="BI87" s="1" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BJ87" s="1" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BK87" s="1" t="str">
         <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BK87" s="1" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BL87" s="1" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="88" customHeight="1" spans="1:63">
+    <row r="88" customHeight="1" spans="1:64">
       <c r="A88" s="5"/>
       <c r="B88" s="5" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="5" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G88" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="J88" s="5">
         <v>-1000</v>
@@ -17935,41 +18405,45 @@
         <v>0.385001909637458</v>
       </c>
       <c r="BI88" s="1" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BJ88" s="1" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BK88" s="1" t="str">
         <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BK88" s="1" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BL88" s="1" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="89" customHeight="1" spans="1:63">
+    <row r="89" customHeight="1" spans="1:64">
       <c r="A89" s="5"/>
       <c r="B89" s="5" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G89" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="J89" s="5">
         <v>0</v>
@@ -18059,43 +18533,47 @@
         <v>0.113994323481652</v>
       </c>
       <c r="BI89" s="1" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BJ89" s="1" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BK89" s="1" t="str">
         <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BK89" s="1" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BL89" s="1" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="90" customHeight="1" spans="1:63">
+    <row r="90" customHeight="1" spans="1:64">
       <c r="A90" s="5"/>
       <c r="B90" s="5" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="G90" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="J90" s="5">
         <v>-1000</v>
@@ -18185,43 +18663,47 @@
         <v>0.0912470517824459</v>
       </c>
       <c r="BI90" s="1" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BJ90" s="1" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="BK90" s="1" t="str">
-        <f t="shared" si="9"/>
+      <c r="BK90" s="1" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="BL90" s="1" t="str">
+        <f t="shared" si="11"/>
         <v>"SUCOAS": 1, </v>
       </c>
     </row>
-    <row r="91" customHeight="1" spans="1:63">
+    <row r="91" customHeight="1" spans="1:64">
       <c r="A91" s="5"/>
       <c r="B91" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G91" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="J91" s="5">
         <v>-1000</v>
@@ -18311,43 +18793,47 @@
         <v>0.207054921541641</v>
       </c>
       <c r="BI91" s="1" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BJ91" s="1" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="BK91" s="1" t="str">
-        <f t="shared" si="9"/>
+      <c r="BK91" s="1" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="BL91" s="1" t="str">
+        <f t="shared" si="11"/>
         <v>"ACONTa": 1, </v>
       </c>
     </row>
-    <row r="92" customHeight="1" spans="1:63">
+    <row r="92" customHeight="1" spans="1:64">
       <c r="A92" s="5"/>
       <c r="B92" s="5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G92" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="J92" s="5">
         <v>-1000</v>
@@ -18437,43 +18923,47 @@
         <v>1.56457605084113</v>
       </c>
       <c r="BI92" s="1" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BJ92" s="1" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="BK92" s="1" t="str">
-        <f t="shared" si="9"/>
+      <c r="BK92" s="1" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="BL92" s="1" t="str">
+        <f t="shared" si="11"/>
         <v>"ACONTb": 1, </v>
       </c>
     </row>
-    <row r="93" customHeight="1" spans="1:63">
+    <row r="93" customHeight="1" spans="1:64">
       <c r="A93" s="5"/>
       <c r="B93" s="5" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G93" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="J93" s="5">
         <v>-1000</v>
@@ -18563,43 +19053,47 @@
         <v>0.200782078761488</v>
       </c>
       <c r="BI93" s="1" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BJ93" s="1" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="BK93" s="1" t="str">
-        <f t="shared" si="9"/>
+      <c r="BK93" s="1" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="BL93" s="1" t="str">
+        <f t="shared" si="11"/>
         <v>"ENO": 1, </v>
       </c>
     </row>
-    <row r="94" customHeight="1" spans="1:63">
+    <row r="94" customHeight="1" spans="1:64">
       <c r="A94" s="5"/>
       <c r="B94" s="5" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G94" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="J94" s="5">
         <v>-1000</v>
@@ -18689,43 +19183,47 @@
         <v>0.381003545626076</v>
       </c>
       <c r="BI94" s="1" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BJ94" s="1" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="BK94" s="1" t="str">
-        <f t="shared" si="9"/>
+      <c r="BK94" s="1" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="BL94" s="1" t="str">
+        <f t="shared" si="11"/>
         <v>"PGM": 1, </v>
       </c>
     </row>
-    <row r="95" customHeight="1" spans="1:63">
+    <row r="95" customHeight="1" spans="1:64">
       <c r="A95" s="5"/>
       <c r="B95" s="5" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G95" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="J95" s="5">
         <v>-1000</v>
@@ -18815,43 +19313,47 @@
         <v>0.978277468245347</v>
       </c>
       <c r="BI95" s="1" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BJ95" s="1" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="BK95" s="1" t="str">
-        <f t="shared" si="9"/>
+      <c r="BK95" s="1" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="BL95" s="1" t="str">
+        <f t="shared" si="11"/>
         <v>"TKT1": 1, </v>
       </c>
     </row>
-    <row r="96" customHeight="1" spans="1:63">
+    <row r="96" customHeight="1" spans="1:64">
       <c r="A96" s="5"/>
       <c r="B96" s="5" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G96" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="J96" s="5">
         <v>-1000</v>
@@ -18941,41 +19443,45 @@
         <v>0.50279135701499</v>
       </c>
       <c r="BI96" s="1" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BJ96" s="1" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="BK96" s="1" t="str">
-        <f t="shared" si="9"/>
+      <c r="BK96" s="1" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="BL96" s="1" t="str">
+        <f t="shared" si="11"/>
         <v>"PGK": 1, </v>
       </c>
     </row>
-    <row r="97" customHeight="1" spans="1:63">
+    <row r="97" customHeight="1" spans="1:64">
       <c r="A97" s="5"/>
       <c r="B97" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G97" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="J97" s="5">
         <v>-1000</v>
@@ -19065,43 +19571,47 @@
         <v>0.0508406931869407</v>
       </c>
       <c r="BI97" s="1" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BJ97" s="1" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BK97" s="1" t="str">
         <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BK97" s="1" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BL97" s="1" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="98" customHeight="1" spans="1:63">
+    <row r="98" customHeight="1" spans="1:64">
       <c r="A98" s="5"/>
       <c r="B98" s="5" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G98" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="J98" s="5">
         <v>0</v>
@@ -19191,20 +19701,24 @@
         <v>0</v>
       </c>
       <c r="BI98" s="1" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BJ98" s="1" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="BK98" s="1" t="str">
-        <f t="shared" si="9"/>
+      <c r="BK98" s="1" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="BL98" s="1" t="str">
+        <f t="shared" si="11"/>
         <v>"PTAr": 1, </v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:BL100">
+  <autoFilter ref="A3:BM98">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
